--- a/Question_Set2/Role-specific skills/Financial Due Diligence.xlsx
+++ b/Question_Set2/Role-specific skills/Financial Due Diligence.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are your company’s financial advisor. Your company wants to buy 80% of the shares of another company. The target company’s latest balance sheet is given in the table below. Based on the net asset valuation method, what per-share price should you recommend?', 'ques_type': 2, 'options': ['$0.50', '$0.60', '$0.70', '$1.00'], 'score': '$0.70'}, {'title': 'You are your company’s financial advisor, and your company’s management wants you to identify the targeted company’s one major risk from the data given in the table below. Which of the following risks should you report?', 'ques_type': 2, 'options': ['Dividend coverage risk', 'Overtrading risk', 'Financial distress risk', 'Profitability risk'], 'score': 'Financial distress risk'}, {'title': 'You are your company’s financial advisor. Your company wants to acquire another company, and the target company has inventories that make up 40% of its total current assets. To determine the value of the target company’s business, you want to evaluate the quality of the inventory. Which of the following factors should you consider in evaluating the quality of the inventory?', 'ques_type': 2, 'options': ['The permanent diminution of the target company’s inventory value.', 'The creditworthiness of the target company’s suppliers.', 'The standardization of the target company’s manufacturing process.', 'The estimated material losses the target company suffers in its manufacturing process.'], 'score': 'The permanent diminution of the target company’s inventory value.'}, {'title': 'ABC company has hired you as a consultant to advise them on the price they should pay for the purchase of XYZ company. ABC will continue the business operations it plans to acquire from XYZ. You estimate that the break-up value of XYZ company’s assets is less than the value of its business. True or false: You should use the net realizable value method in the valuation of XYZ.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "You are your company\u2019s financial advisor. Your company wants to buy 80% of the shares of another company. The target company\u2019s latest balance sheet is given in the table below. Based on the net asset valuation method, what per-share price should you recommend?",
+        "ques_type": 2,
+        "options": [
+            "$0.50",
+            "$0.60",
+            "$0.70",
+            "$1.00"
+        ],
+        "score": "$0.70"
+    },
+    {
+        "title": "You are your company\u2019s financial advisor, and your company\u2019s management wants you to identify the targeted company\u2019s one major risk from the data given in the table below. Which of the following risks should you report?",
+        "ques_type": 2,
+        "options": [
+            "Dividend coverage risk",
+            "Overtrading risk",
+            "Financial distress risk",
+            "Profitability risk"
+        ],
+        "score": "Financial distress risk"
+    },
+    {
+        "title": "You are your company\u2019s financial advisor. Your company wants to acquire another company, and the target company has inventories that make up 40% of its total current assets. To determine the value of the target company\u2019s business, you want to evaluate the quality of the inventory. Which of the following factors should you consider in evaluating the quality of the inventory?",
+        "ques_type": 2,
+        "options": [
+            "The permanent diminution of the target company\u2019s inventory value.",
+            "The creditworthiness of the target company\u2019s suppliers.",
+            "The standardization of the target company\u2019s manufacturing process.",
+            "The estimated material losses the target company suffers in its manufacturing process."
+        ],
+        "score": "The permanent diminution of the target company\u2019s inventory value."
+    },
+    {
+        "title": "ABC company has hired you as a consultant to advise them on the price they should pay for the purchase of XYZ company. ABC will continue the business operations it plans to acquire from XYZ. You estimate that the break-up value of XYZ company\u2019s assets is less than the value of its business. True or false: You should use the net realizable value method in the valuation of XYZ.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
